--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N2">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O2">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P2">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q2">
-        <v>3876.453179141077</v>
+        <v>13456.0008675904</v>
       </c>
       <c r="R2">
-        <v>3876.453179141077</v>
+        <v>121104.0078083136</v>
       </c>
       <c r="S2">
-        <v>0.02707755620962937</v>
+        <v>0.05271127618497505</v>
       </c>
       <c r="T2">
-        <v>0.02707755620962937</v>
+        <v>0.05271127618497505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N3">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O3">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P3">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q3">
-        <v>139.6260560939687</v>
+        <v>270.5100185178996</v>
       </c>
       <c r="R3">
-        <v>139.6260560939687</v>
+        <v>2434.590166661097</v>
       </c>
       <c r="S3">
-        <v>0.0009753071190327169</v>
+        <v>0.001059670583943199</v>
       </c>
       <c r="T3">
-        <v>0.0009753071190327169</v>
+        <v>0.001059670583943199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N4">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O4">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P4">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q4">
-        <v>1332.93212007201</v>
+        <v>2853.303189204798</v>
       </c>
       <c r="R4">
-        <v>1332.93212007201</v>
+        <v>25679.72870284319</v>
       </c>
       <c r="S4">
-        <v>0.00931071336011015</v>
+        <v>0.0111772623921194</v>
       </c>
       <c r="T4">
-        <v>0.00931071336011015</v>
+        <v>0.0111772623921194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N5">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O5">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P5">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q5">
-        <v>251.0559612985785</v>
+        <v>564.0130781689617</v>
       </c>
       <c r="R5">
-        <v>251.0559612985785</v>
+        <v>5076.117703520655</v>
       </c>
       <c r="S5">
-        <v>0.001753660263563677</v>
+        <v>0.002209411951429656</v>
       </c>
       <c r="T5">
-        <v>0.001753660263563677</v>
+        <v>0.002209411951429656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N6">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O6">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P6">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q6">
-        <v>1984.91019838088</v>
+        <v>3633.416684419471</v>
       </c>
       <c r="R6">
-        <v>1984.91019838088</v>
+        <v>32700.75015977523</v>
       </c>
       <c r="S6">
-        <v>0.01386486950414649</v>
+        <v>0.01423320585604475</v>
       </c>
       <c r="T6">
-        <v>0.01386486950414649</v>
+        <v>0.01423320585604475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N7">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O7">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P7">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q7">
-        <v>71.49452602495447</v>
+        <v>73.04366462645466</v>
       </c>
       <c r="R7">
-        <v>71.49452602495447</v>
+        <v>657.3929816380919</v>
       </c>
       <c r="S7">
-        <v>0.0004993990531185673</v>
+        <v>0.0002861344033472266</v>
       </c>
       <c r="T7">
-        <v>0.0004993990531185673</v>
+        <v>0.0002861344033472266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N8">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O8">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P8">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q8">
-        <v>682.5183838455674</v>
+        <v>770.4547224230733</v>
       </c>
       <c r="R8">
-        <v>682.5183838455674</v>
+        <v>6934.09250180766</v>
       </c>
       <c r="S8">
-        <v>0.004767484359704983</v>
+        <v>0.003018107092983067</v>
       </c>
       <c r="T8">
-        <v>0.004767484359704983</v>
+        <v>0.003018107092983067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N9">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O9">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P9">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q9">
-        <v>128.5514141193057</v>
+        <v>152.2959569202867</v>
       </c>
       <c r="R9">
-        <v>128.5514141193057</v>
+        <v>1370.66361228258</v>
       </c>
       <c r="S9">
-        <v>0.0008979492285301151</v>
+        <v>0.0005965899026073586</v>
       </c>
       <c r="T9">
-        <v>0.0008979492285301151</v>
+        <v>0.0005965899026073586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N10">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O10">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P10">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q10">
-        <v>92277.82001633708</v>
+        <v>181254.6744640281</v>
       </c>
       <c r="R10">
-        <v>92277.82001633708</v>
+        <v>1631292.070176252</v>
       </c>
       <c r="S10">
-        <v>0.6445732072399407</v>
+        <v>0.7100300675888714</v>
       </c>
       <c r="T10">
-        <v>0.6445732072399407</v>
+        <v>0.7100300675888714</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N11">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O11">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P11">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q11">
-        <v>3323.756918608025</v>
+        <v>3643.817046996091</v>
       </c>
       <c r="R11">
-        <v>3323.756918608025</v>
+        <v>32794.35342296481</v>
       </c>
       <c r="S11">
-        <v>0.02321689715615107</v>
+        <v>0.01427394726128058</v>
       </c>
       <c r="T11">
-        <v>0.02321689715615107</v>
+        <v>0.01427394726128058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N12">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O12">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P12">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q12">
-        <v>31730.05440433391</v>
+        <v>38434.49073729885</v>
       </c>
       <c r="R12">
-        <v>31730.05440433391</v>
+        <v>345910.4166356897</v>
       </c>
       <c r="S12">
-        <v>0.2216387744062266</v>
+        <v>0.1505596704561905</v>
       </c>
       <c r="T12">
-        <v>0.2216387744062266</v>
+        <v>0.1505596704561905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N13">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O13">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P13">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q13">
-        <v>5976.312814868539</v>
+        <v>7597.354361294428</v>
       </c>
       <c r="R13">
-        <v>5976.312814868539</v>
+        <v>68376.18925164983</v>
       </c>
       <c r="S13">
-        <v>0.04174536327220318</v>
+        <v>0.02976116365880018</v>
       </c>
       <c r="T13">
-        <v>0.04174536327220318</v>
+        <v>0.02976116365880018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.1842207804032</v>
+        <v>85.89497033333333</v>
       </c>
       <c r="N14">
-        <v>47.1842207804032</v>
+        <v>257.684911</v>
       </c>
       <c r="O14">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="P14">
-        <v>0.6922154609903348</v>
+        <v>0.7848889718219874</v>
       </c>
       <c r="Q14">
-        <v>959.1548620998224</v>
+        <v>2020.373620050534</v>
       </c>
       <c r="R14">
-        <v>959.1548620998224</v>
+        <v>18183.36258045481</v>
       </c>
       <c r="S14">
-        <v>0.006699828036618225</v>
+        <v>0.007914422192096078</v>
       </c>
       <c r="T14">
-        <v>0.006699828036618225</v>
+        <v>0.007914422192096076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.69952953201786</v>
+        <v>1.726772333333333</v>
       </c>
       <c r="N15">
-        <v>1.69952953201786</v>
+        <v>5.180317</v>
       </c>
       <c r="O15">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="P15">
-        <v>0.02493292458823515</v>
+        <v>0.0157788582500353</v>
       </c>
       <c r="Q15">
-        <v>34.5478210078695</v>
+        <v>40.61617643688622</v>
       </c>
       <c r="R15">
-        <v>34.5478210078695</v>
+        <v>365.545587931976</v>
       </c>
       <c r="S15">
-        <v>0.0002413212599327917</v>
+        <v>0.0001591060014642944</v>
       </c>
       <c r="T15">
-        <v>0.0002413212599327917</v>
+        <v>0.0001591060014642944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2244610039903</v>
+        <v>18.21376166666667</v>
       </c>
       <c r="N16">
-        <v>16.2244610039903</v>
+        <v>54.641285</v>
       </c>
       <c r="O16">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="P16">
-        <v>0.2380207316650506</v>
+        <v>0.1664332685846793</v>
       </c>
       <c r="Q16">
-        <v>329.8087877587556</v>
+        <v>428.4139507868312</v>
       </c>
       <c r="R16">
-        <v>329.8087877587556</v>
+        <v>3855.72555708148</v>
       </c>
       <c r="S16">
-        <v>0.002303759539008846</v>
+        <v>0.001678228643386288</v>
       </c>
       <c r="T16">
-        <v>0.002303759539008846</v>
+        <v>0.001678228643386288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.05585527767763</v>
+        <v>3.600318333333334</v>
       </c>
       <c r="N17">
-        <v>3.05585527767763</v>
+        <v>10.800955</v>
       </c>
       <c r="O17">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="P17">
-        <v>0.04483088275637923</v>
+        <v>0.03289890134329811</v>
       </c>
       <c r="Q17">
-        <v>62.11903892826892</v>
+        <v>84.6846812592489</v>
       </c>
       <c r="R17">
-        <v>62.11903892826892</v>
+        <v>762.16213133324</v>
       </c>
       <c r="S17">
-        <v>0.0004339099920822599</v>
+        <v>0.0003317358304609116</v>
       </c>
       <c r="T17">
-        <v>0.0004339099920822599</v>
+        <v>0.0003317358304609115</v>
       </c>
     </row>
   </sheetData>
